--- a/excel/message_details/message_details_AggregatedAllocationSeriesNotification.xlsx
+++ b/excel/message_details/message_details_AggregatedAllocationSeriesNotification.xlsx
@@ -471,32 +471,32 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Error Message Summer</t>
+          <t>Error Message 1</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>Error Message Summer To Winter</t>
+          <t>Error Message 2</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>Error Message Winter</t>
+          <t>Error Message 3</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>Error Message Winter To Summer</t>
+          <t>Error Message 4</t>
         </is>
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
-          <t>Error Message testIDfunc1</t>
+          <t>Error Message 5</t>
         </is>
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>Error Message testIDfunc1.1</t>
+          <t>Error Message 6</t>
         </is>
       </c>
     </row>
@@ -676,37 +676,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>not_mapped</t>
+          <t>use_gridpoint_from_list</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>not_mapped</t>
+          <t>use_gridpoint_from_list</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>not_mapped</t>
+          <t>use_gridpoint_from_list</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>not_mapped</t>
+          <t>use_gridpoint_from_list</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>not_mapped</t>
+          <t>use_gridpoint_from_list</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>not_mapped</t>
+          <t>use_gridpoint_from_list</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>not_mapped</t>
+          <t>use_gridpoint_from_list</t>
         </is>
       </c>
     </row>
@@ -718,37 +718,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>not_mapped</t>
+          <t>use_gridpoint_from_list</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>not_mapped</t>
+          <t>use_gridpoint_from_list</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>not_mapped</t>
+          <t>use_gridpoint_from_list</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>not_mapped</t>
+          <t>use_gridpoint_from_list</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>not_mapped</t>
+          <t>use_gridpoint_from_list</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>not_mapped</t>
+          <t>use_gridpoint_from_list</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>not_mapped</t>
+          <t>use_gridpoint_from_list</t>
         </is>
       </c>
     </row>
@@ -886,37 +886,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>not_mapped</t>
+          <t>use_gridpoint_from_list</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>not_mapped</t>
+          <t>use_gridpoint_from_list</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>not_mapped</t>
+          <t>use_gridpoint_from_list</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>not_mapped</t>
+          <t>use_gridpoint_from_list</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>not_mapped</t>
+          <t>use_gridpoint_from_list</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>not_mapped</t>
+          <t>use_gridpoint_from_list</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>not_mapped</t>
+          <t>use_gridpoint_from_list</t>
         </is>
       </c>
     </row>
@@ -2964,32 +2964,32 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Error Message Summer</t>
+          <t>Error Message 1</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>Error Message Summer To Winter</t>
+          <t>Error Message 2</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>Error Message Winter</t>
+          <t>Error Message 3</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>Error Message Winter To Summer</t>
+          <t>Error Message 4</t>
         </is>
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
-          <t>Error Message testIDfunc1</t>
+          <t>Error Message 5</t>
         </is>
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>Error Message testIDfunc1.1</t>
+          <t>Error Message 6</t>
         </is>
       </c>
     </row>
@@ -3169,37 +3169,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>not_mapped</t>
+          <t>use_gridpoint_from_list</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>not_mapped</t>
+          <t>871687120000029302</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>not_mapped</t>
+          <t>871687120000029999</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>not_mapped</t>
+          <t>871687120000022853</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>not_mapped</t>
+          <t>871687120000028268</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>not_mapped</t>
+          <t>871687120000028022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>not_mapped</t>
+          <t>871687120000024765</t>
         </is>
       </c>
     </row>
@@ -3211,37 +3211,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>not_mapped</t>
+          <t>use_gridpoint_from_list</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>not_mapped</t>
+          <t>871687120000022211</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>not_mapped</t>
+          <t>871687120000029746</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>not_mapped</t>
+          <t>871687120000027186</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>not_mapped</t>
+          <t>871687120000026561</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>not_mapped</t>
+          <t>871687120000024772</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>not_mapped</t>
+          <t>871687120000028152</t>
         </is>
       </c>
     </row>
@@ -3258,22 +3258,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NLPROTOC-OLTE-STAA-SNEM-S00000000000</t>
+          <t>NLPROTOC-OLTE-STAA-SNEM-000000000001</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NLPROTOC-OLTE-STAA-SNEM-STW000000000</t>
+          <t>NLPROTOC-OLTE-STAA-SNEM-000000000002</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NLPROTOC-OLTE-STAA-SNEM-W00000000000</t>
+          <t>NLPROTOC-OLTE-STAA-SNEM-000000000003</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>NLPROTOC-OLTE-STAA-SNEM-WTS000000000</t>
+          <t>NLPROTOC-OLTE-STAA-SNEM-000000000004</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -3283,7 +3283,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>NLPROTOC-OLTE-STAA-SNEM-ID0000000000</t>
+          <t>NLPROTOC-OLTE-STAA-SNEM-000000000006</t>
         </is>
       </c>
     </row>
@@ -3379,37 +3379,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>not_mapped</t>
+          <t>use_gridpoint_from_list</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>not_mapped</t>
+          <t>871687120000023058</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>not_mapped</t>
+          <t>871687120000026233</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>not_mapped</t>
+          <t>871687120000024734</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>not_mapped</t>
+          <t>871687120000027315</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>not_mapped</t>
+          <t>871687120000021528</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>not_mapped</t>
+          <t>871687120000023492</t>
         </is>
       </c>
     </row>
@@ -4770,32 +4770,32 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>AASN Error Message Summer.xml</t>
+          <t>AASN Error Message 1.xml</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>AASN Error Message Summer To Winter.xml</t>
+          <t>AASN Error Message 2.xml</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>AASN Error Message Winter.xml</t>
+          <t>AASN Error Message 3.xml</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>AASN Error Message Winter To Summer.xml</t>
+          <t>AASN Error Message 4.xml</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>AASN Error Message testIDfunc1.xml</t>
+          <t>AASN Error Message 5.xml</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>AASN Error Message testIDfunc1.1.xml</t>
+          <t>AASN Error Message 6.xml</t>
         </is>
       </c>
     </row>
@@ -4896,32 +4896,32 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>NLPROTOC-OLTE-STAA-SNEM-S00000000000</t>
+          <t>NLPROTOC-OLTE-STAA-SNEM-000000000001</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NLPROTOC-OLTE-STAA-SNEM-STW000000000</t>
+          <t>NLPROTOC-OLTE-STAA-SNEM-000000000002</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>NLPROTOC-OLTE-STAA-SNEM-W00000000000</t>
+          <t>NLPROTOC-OLTE-STAA-SNEM-000000000003</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>NLPROTOC-OLTE-STAA-SNEM-WTS000000000</t>
+          <t>NLPROTOC-OLTE-STAA-SNEM-000000000004</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>NLPROTOC-OLTE-STAA-SNEM-ID0000000000</t>
+          <t>NLPROTOC-OLTE-STAA-SNEM-000000000005</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>NLPROTOC-OLTE-STAA-SNEM-ID0000000000</t>
+          <t>NLPROTOC-OLTE-STAA-SNEM-000000000006</t>
         </is>
       </c>
     </row>
